--- a/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
+++ b/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t>id</t>
   </si>
@@ -1375,9 +1375,6 @@
     <t>Source: World Bank</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1760,32 +1757,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
@@ -1801,11 +1798,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
+++ b/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1381,7 +1381,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
+++ b/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
   <si>
     <t>id</t>
   </si>
@@ -1387,7 +1387,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1800,6 +1803,11 @@
         <v>459</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
+++ b/user-data/taxrev-pctGDP/taxrev-pctGDP.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1396,7 +1396,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -11214,7 +11214,9 @@
       <c r="C727" t="n">
         <v>2002</v>
       </c>
-      <c r="D727"/>
+      <c r="D727" t="n">
+        <v>0.082</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
@@ -11227,7 +11229,7 @@
         <v>2003</v>
       </c>
       <c r="D728" t="n">
-        <v>0.149</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="729">
@@ -11241,7 +11243,7 @@
         <v>2004</v>
       </c>
       <c r="D729" t="n">
-        <v>0.152</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="730">
@@ -11255,7 +11257,7 @@
         <v>2005</v>
       </c>
       <c r="D730" t="n">
-        <v>0.145</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="731">
@@ -11269,7 +11271,7 @@
         <v>2006</v>
       </c>
       <c r="D731" t="n">
-        <v>0.15</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="732">
@@ -11283,7 +11285,7 @@
         <v>2007</v>
       </c>
       <c r="D732" t="n">
-        <v>0.155</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="733">
@@ -11297,7 +11299,7 @@
         <v>2008</v>
       </c>
       <c r="D733" t="n">
-        <v>0.156</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="734">
@@ -11311,7 +11313,7 @@
         <v>2009</v>
       </c>
       <c r="D734" t="n">
-        <v>0.154</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="735">
@@ -11325,7 +11327,7 @@
         <v>2010</v>
       </c>
       <c r="D735" t="n">
-        <v>0.156</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="736">
@@ -11339,7 +11341,7 @@
         <v>2011</v>
       </c>
       <c r="D736" t="n">
-        <v>0.115</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="737">
@@ -11353,7 +11355,7 @@
         <v>2012</v>
       </c>
       <c r="D737" t="n">
-        <v>0.156</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="738">
@@ -11366,7 +11368,9 @@
       <c r="C738" t="n">
         <v>1990</v>
       </c>
-      <c r="D738"/>
+      <c r="D738" t="n">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
@@ -11378,7 +11382,9 @@
       <c r="C739" t="n">
         <v>1991</v>
       </c>
-      <c r="D739"/>
+      <c r="D739" t="n">
+        <v>0.089</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
@@ -11390,7 +11396,9 @@
       <c r="C740" t="n">
         <v>1992</v>
       </c>
-      <c r="D740"/>
+      <c r="D740" t="n">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
@@ -11402,7 +11410,9 @@
       <c r="C741" t="n">
         <v>1993</v>
       </c>
-      <c r="D741"/>
+      <c r="D741" t="n">
+        <v>0.084</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -11414,7 +11424,9 @@
       <c r="C742" t="n">
         <v>1994</v>
       </c>
-      <c r="D742"/>
+      <c r="D742" t="n">
+        <v>0.073</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -11426,7 +11438,9 @@
       <c r="C743" t="n">
         <v>1995</v>
       </c>
-      <c r="D743"/>
+      <c r="D743" t="n">
+        <v>0.086</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
@@ -11462,7 +11476,9 @@
       <c r="C746" t="n">
         <v>1998</v>
       </c>
-      <c r="D746"/>
+      <c r="D746" t="n">
+        <v>0.111</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
@@ -11474,7 +11490,9 @@
       <c r="C747" t="n">
         <v>1999</v>
       </c>
-      <c r="D747"/>
+      <c r="D747" t="n">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
@@ -11510,9 +11528,7 @@
       <c r="C750" t="n">
         <v>2002</v>
       </c>
-      <c r="D750" t="n">
-        <v>0.082</v>
-      </c>
+      <c r="D750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
@@ -11524,9 +11540,7 @@
       <c r="C751" t="n">
         <v>2003</v>
       </c>
-      <c r="D751" t="n">
-        <v>0.075</v>
-      </c>
+      <c r="D751"/>
     </row>
     <row r="752">
       <c r="A752" t="s">
@@ -11538,9 +11552,7 @@
       <c r="C752" t="n">
         <v>2004</v>
       </c>
-      <c r="D752" t="n">
-        <v>0.081</v>
-      </c>
+      <c r="D752"/>
     </row>
     <row r="753">
       <c r="A753" t="s">
@@ -11552,9 +11564,7 @@
       <c r="C753" t="n">
         <v>2005</v>
       </c>
-      <c r="D753" t="n">
-        <v>0.079</v>
-      </c>
+      <c r="D753"/>
     </row>
     <row r="754">
       <c r="A754" t="s">
@@ -11566,9 +11576,7 @@
       <c r="C754" t="n">
         <v>2006</v>
       </c>
-      <c r="D754" t="n">
-        <v>0.082</v>
-      </c>
+      <c r="D754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
@@ -11580,9 +11588,7 @@
       <c r="C755" t="n">
         <v>2007</v>
       </c>
-      <c r="D755" t="n">
-        <v>0.097</v>
-      </c>
+      <c r="D755"/>
     </row>
     <row r="756">
       <c r="A756" t="s">
@@ -11594,9 +11600,7 @@
       <c r="C756" t="n">
         <v>2008</v>
       </c>
-      <c r="D756" t="n">
-        <v>0.106</v>
-      </c>
+      <c r="D756"/>
     </row>
     <row r="757">
       <c r="A757" t="s">
@@ -11608,9 +11612,7 @@
       <c r="C757" t="n">
         <v>2009</v>
       </c>
-      <c r="D757" t="n">
-        <v>0.096</v>
-      </c>
+      <c r="D757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
@@ -11622,9 +11624,7 @@
       <c r="C758" t="n">
         <v>2010</v>
       </c>
-      <c r="D758" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="D758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
@@ -11636,9 +11636,7 @@
       <c r="C759" t="n">
         <v>2011</v>
       </c>
-      <c r="D759" t="n">
-        <v>0.102</v>
-      </c>
+      <c r="D759"/>
     </row>
     <row r="760">
       <c r="A760" t="s">
@@ -11650,9 +11648,7 @@
       <c r="C760" t="n">
         <v>2012</v>
       </c>
-      <c r="D760" t="n">
-        <v>0.116</v>
-      </c>
+      <c r="D760"/>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -11664,9 +11660,7 @@
       <c r="C761" t="n">
         <v>1990</v>
       </c>
-      <c r="D761" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="D761"/>
     </row>
     <row r="762">
       <c r="A762" t="s">
@@ -11679,7 +11673,7 @@
         <v>1991</v>
       </c>
       <c r="D762" t="n">
-        <v>0.089</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="763">
@@ -11693,7 +11687,7 @@
         <v>1992</v>
       </c>
       <c r="D763" t="n">
-        <v>0.098</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="764">
@@ -11707,7 +11701,7 @@
         <v>1993</v>
       </c>
       <c r="D764" t="n">
-        <v>0.084</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="765">
@@ -11721,7 +11715,7 @@
         <v>1994</v>
       </c>
       <c r="D765" t="n">
-        <v>0.073</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="766">
@@ -11735,7 +11729,7 @@
         <v>1995</v>
       </c>
       <c r="D766" t="n">
-        <v>0.086</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="767">
@@ -11748,7 +11742,9 @@
       <c r="C767" t="n">
         <v>1996</v>
       </c>
-      <c r="D767"/>
+      <c r="D767" t="n">
+        <v>0.139</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
@@ -11760,7 +11756,9 @@
       <c r="C768" t="n">
         <v>1997</v>
       </c>
-      <c r="D768"/>
+      <c r="D768" t="n">
+        <v>0.146</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
@@ -11773,7 +11771,7 @@
         <v>1998</v>
       </c>
       <c r="D769" t="n">
-        <v>0.111</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="770">
@@ -11787,7 +11785,7 @@
         <v>1999</v>
       </c>
       <c r="D770" t="n">
-        <v>0.112</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="771">
@@ -11800,7 +11798,9 @@
       <c r="C771" t="n">
         <v>2000</v>
       </c>
-      <c r="D771"/>
+      <c r="D771" t="n">
+        <v>0.149</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
@@ -11812,7 +11812,9 @@
       <c r="C772" t="n">
         <v>2001</v>
       </c>
-      <c r="D772"/>
+      <c r="D772" t="n">
+        <v>0.143</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
@@ -11824,7 +11826,9 @@
       <c r="C773" t="n">
         <v>2002</v>
       </c>
-      <c r="D773"/>
+      <c r="D773" t="n">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="s">
@@ -11836,7 +11840,9 @@
       <c r="C774" t="n">
         <v>2003</v>
       </c>
-      <c r="D774"/>
+      <c r="D774" t="n">
+        <v>0.133</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
@@ -11848,7 +11854,9 @@
       <c r="C775" t="n">
         <v>2004</v>
       </c>
-      <c r="D775"/>
+      <c r="D775" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
@@ -11860,7 +11868,9 @@
       <c r="C776" t="n">
         <v>2005</v>
       </c>
-      <c r="D776"/>
+      <c r="D776" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="s">
@@ -11872,7 +11882,9 @@
       <c r="C777" t="n">
         <v>2006</v>
       </c>
-      <c r="D777"/>
+      <c r="D777" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
@@ -11884,7 +11896,9 @@
       <c r="C778" t="n">
         <v>2007</v>
       </c>
-      <c r="D778"/>
+      <c r="D778" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
@@ -11896,7 +11910,9 @@
       <c r="C779" t="n">
         <v>2008</v>
       </c>
-      <c r="D779"/>
+      <c r="D779" t="n">
+        <v>0.124</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -11908,7 +11924,9 @@
       <c r="C780" t="n">
         <v>2009</v>
       </c>
-      <c r="D780"/>
+      <c r="D780" t="n">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
@@ -11920,7 +11938,9 @@
       <c r="C781" t="n">
         <v>2010</v>
       </c>
-      <c r="D781"/>
+      <c r="D781" t="n">
+        <v>0.118</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="s">
@@ -11932,7 +11952,9 @@
       <c r="C782" t="n">
         <v>2011</v>
       </c>
-      <c r="D782"/>
+      <c r="D782" t="n">
+        <v>0.117</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="s">
@@ -11944,7 +11966,9 @@
       <c r="C783" t="n">
         <v>2012</v>
       </c>
-      <c r="D783"/>
+      <c r="D783" t="n">
+        <v>0.117</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="s">
@@ -11968,9 +11992,7 @@
       <c r="C785" t="n">
         <v>1991</v>
       </c>
-      <c r="D785" t="n">
-        <v>0.145</v>
-      </c>
+      <c r="D785"/>
     </row>
     <row r="786">
       <c r="A786" t="s">
@@ -11982,9 +12004,7 @@
       <c r="C786" t="n">
         <v>1992</v>
       </c>
-      <c r="D786" t="n">
-        <v>0.144</v>
-      </c>
+      <c r="D786"/>
     </row>
     <row r="787">
       <c r="A787" t="s">
@@ -11996,9 +12016,7 @@
       <c r="C787" t="n">
         <v>1993</v>
       </c>
-      <c r="D787" t="n">
-        <v>0.137</v>
-      </c>
+      <c r="D787"/>
     </row>
     <row r="788">
       <c r="A788" t="s">
@@ -12010,9 +12028,7 @@
       <c r="C788" t="n">
         <v>1994</v>
       </c>
-      <c r="D788" t="n">
-        <v>0.131</v>
-      </c>
+      <c r="D788"/>
     </row>
     <row r="789">
       <c r="A789" t="s">
@@ -12024,9 +12040,7 @@
       <c r="C789" t="n">
         <v>1995</v>
       </c>
-      <c r="D789" t="n">
-        <v>0.134</v>
-      </c>
+      <c r="D789"/>
     </row>
     <row r="790">
       <c r="A790" t="s">
@@ -12038,9 +12052,7 @@
       <c r="C790" t="n">
         <v>1996</v>
       </c>
-      <c r="D790" t="n">
-        <v>0.139</v>
-      </c>
+      <c r="D790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
@@ -12052,9 +12064,7 @@
       <c r="C791" t="n">
         <v>1997</v>
       </c>
-      <c r="D791" t="n">
-        <v>0.146</v>
-      </c>
+      <c r="D791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
@@ -12066,9 +12076,7 @@
       <c r="C792" t="n">
         <v>1998</v>
       </c>
-      <c r="D792" t="n">
-        <v>0.147</v>
-      </c>
+      <c r="D792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
@@ -12080,9 +12088,7 @@
       <c r="C793" t="n">
         <v>1999</v>
       </c>
-      <c r="D793" t="n">
-        <v>0.148</v>
-      </c>
+      <c r="D793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
@@ -12094,9 +12100,7 @@
       <c r="C794" t="n">
         <v>2000</v>
       </c>
-      <c r="D794" t="n">
-        <v>0.149</v>
-      </c>
+      <c r="D794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
@@ -12108,9 +12112,7 @@
       <c r="C795" t="n">
         <v>2001</v>
       </c>
-      <c r="D795" t="n">
-        <v>0.143</v>
-      </c>
+      <c r="D795"/>
     </row>
     <row r="796">
       <c r="A796" t="s">
@@ -12122,9 +12124,7 @@
       <c r="C796" t="n">
         <v>2002</v>
       </c>
-      <c r="D796" t="n">
-        <v>0.135</v>
-      </c>
+      <c r="D796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
@@ -12136,9 +12136,7 @@
       <c r="C797" t="n">
         <v>2003</v>
       </c>
-      <c r="D797" t="n">
-        <v>0.133</v>
-      </c>
+      <c r="D797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
@@ -12150,9 +12148,7 @@
       <c r="C798" t="n">
         <v>2004</v>
       </c>
-      <c r="D798" t="n">
-        <v>0.134</v>
-      </c>
+      <c r="D798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
@@ -12165,7 +12161,7 @@
         <v>2005</v>
       </c>
       <c r="D799" t="n">
-        <v>0.134</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="800">
@@ -12179,7 +12175,7 @@
         <v>2006</v>
       </c>
       <c r="D800" t="n">
-        <v>0.134</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="801">
@@ -12193,7 +12189,7 @@
         <v>2007</v>
       </c>
       <c r="D801" t="n">
-        <v>0.134</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="802">
@@ -12207,7 +12203,7 @@
         <v>2008</v>
       </c>
       <c r="D802" t="n">
-        <v>0.124</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="803">
@@ -12221,7 +12217,7 @@
         <v>2009</v>
       </c>
       <c r="D803" t="n">
-        <v>0.123</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="804">
@@ -12235,7 +12231,7 @@
         <v>2010</v>
       </c>
       <c r="D804" t="n">
-        <v>0.118</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="805">
@@ -12249,7 +12245,7 @@
         <v>2011</v>
       </c>
       <c r="D805" t="n">
-        <v>0.117</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="806">
@@ -12263,7 +12259,7 @@
         <v>2012</v>
       </c>
       <c r="D806" t="n">
-        <v>0.117</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="807">
@@ -12456,9 +12452,7 @@
       <c r="C822" t="n">
         <v>2005</v>
       </c>
-      <c r="D822" t="n">
-        <v>0.211</v>
-      </c>
+      <c r="D822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
@@ -12470,9 +12464,7 @@
       <c r="C823" t="n">
         <v>2006</v>
       </c>
-      <c r="D823" t="n">
-        <v>0.227</v>
-      </c>
+      <c r="D823"/>
     </row>
     <row r="824">
       <c r="A824" t="s">
@@ -12484,9 +12476,7 @@
       <c r="C824" t="n">
         <v>2007</v>
       </c>
-      <c r="D824" t="n">
-        <v>0.209</v>
-      </c>
+      <c r="D824"/>
     </row>
     <row r="825">
       <c r="A825" t="s">
@@ -12499,7 +12489,7 @@
         <v>2008</v>
       </c>
       <c r="D825" t="n">
-        <v>0.213</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="826">
@@ -12513,7 +12503,7 @@
         <v>2009</v>
       </c>
       <c r="D826" t="n">
-        <v>0.184</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="827">
@@ -12527,7 +12517,7 @@
         <v>2010</v>
       </c>
       <c r="D827" t="n">
-        <v>0.184</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="828">
@@ -12541,7 +12531,7 @@
         <v>2011</v>
       </c>
       <c r="D828" t="n">
-        <v>0.197</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="829">
@@ -12555,7 +12545,7 @@
         <v>2012</v>
       </c>
       <c r="D829" t="n">
-        <v>0.178</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="830">
@@ -12784,9 +12774,7 @@
       <c r="C848" t="n">
         <v>2008</v>
       </c>
-      <c r="D848" t="n">
-        <v>0.083</v>
-      </c>
+      <c r="D848"/>
     </row>
     <row r="849">
       <c r="A849" t="s">
@@ -12798,9 +12786,7 @@
       <c r="C849" t="n">
         <v>2009</v>
       </c>
-      <c r="D849" t="n">
-        <v>0.082</v>
-      </c>
+      <c r="D849"/>
     </row>
     <row r="850">
       <c r="A850" t="s">
@@ -12812,9 +12798,7 @@
       <c r="C850" t="n">
         <v>2010</v>
       </c>
-      <c r="D850" t="n">
-        <v>0.091</v>
-      </c>
+      <c r="D850"/>
     </row>
     <row r="851">
       <c r="A851" t="s">
@@ -12826,9 +12810,7 @@
       <c r="C851" t="n">
         <v>2011</v>
       </c>
-      <c r="D851" t="n">
-        <v>0.084</v>
-      </c>
+      <c r="D851"/>
     </row>
     <row r="852">
       <c r="A852" t="s">
@@ -12840,9 +12822,7 @@
       <c r="C852" t="n">
         <v>2012</v>
       </c>
-      <c r="D852" t="n">
-        <v>0.095</v>
-      </c>
+      <c r="D852"/>
     </row>
     <row r="853">
       <c r="A853" t="s">
@@ -13274,7 +13254,9 @@
       <c r="C888" t="n">
         <v>2002</v>
       </c>
-      <c r="D888"/>
+      <c r="D888" t="n">
+        <v>0.159</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="s">
@@ -13286,7 +13268,9 @@
       <c r="C889" t="n">
         <v>2003</v>
       </c>
-      <c r="D889"/>
+      <c r="D889" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="s">
@@ -13298,7 +13282,9 @@
       <c r="C890" t="n">
         <v>2004</v>
       </c>
-      <c r="D890"/>
+      <c r="D890" t="n">
+        <v>0.162</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="s">
@@ -13310,7 +13296,9 @@
       <c r="C891" t="n">
         <v>2005</v>
       </c>
-      <c r="D891"/>
+      <c r="D891" t="n">
+        <v>0.178</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="s">
@@ -13322,7 +13310,9 @@
       <c r="C892" t="n">
         <v>2006</v>
       </c>
-      <c r="D892"/>
+      <c r="D892" t="n">
+        <v>0.195</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="s">
@@ -13334,7 +13324,9 @@
       <c r="C893" t="n">
         <v>2007</v>
       </c>
-      <c r="D893"/>
+      <c r="D893" t="n">
+        <v>0.203</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="s">
@@ -13346,7 +13338,9 @@
       <c r="C894" t="n">
         <v>2008</v>
       </c>
-      <c r="D894"/>
+      <c r="D894" t="n">
+        <v>0.187</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="s">
@@ -13358,7 +13352,9 @@
       <c r="C895" t="n">
         <v>2009</v>
       </c>
-      <c r="D895"/>
+      <c r="D895" t="n">
+        <v>0.146</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="s">
@@ -13370,7 +13366,9 @@
       <c r="C896" t="n">
         <v>2010</v>
       </c>
-      <c r="D896"/>
+      <c r="D896" t="n">
+        <v>0.174</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="s">
@@ -13382,7 +13380,9 @@
       <c r="C897" t="n">
         <v>2011</v>
       </c>
-      <c r="D897"/>
+      <c r="D897" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="s">
@@ -13394,7 +13394,9 @@
       <c r="C898" t="n">
         <v>2012</v>
       </c>
-      <c r="D898"/>
+      <c r="D898" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="s">
@@ -13550,9 +13552,7 @@
       <c r="C911" t="n">
         <v>2002</v>
       </c>
-      <c r="D911" t="n">
-        <v>0.159</v>
-      </c>
+      <c r="D911"/>
     </row>
     <row r="912">
       <c r="A912" t="s">
@@ -13564,9 +13564,7 @@
       <c r="C912" t="n">
         <v>2003</v>
       </c>
-      <c r="D912" t="n">
-        <v>0.155</v>
-      </c>
+      <c r="D912"/>
     </row>
     <row r="913">
       <c r="A913" t="s">
@@ -13578,9 +13576,7 @@
       <c r="C913" t="n">
         <v>2004</v>
       </c>
-      <c r="D913" t="n">
-        <v>0.162</v>
-      </c>
+      <c r="D913"/>
     </row>
     <row r="914">
       <c r="A914" t="s">
@@ -13593,7 +13589,7 @@
         <v>2005</v>
       </c>
       <c r="D914" t="n">
-        <v>0.178</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="915">
@@ -13607,7 +13603,7 @@
         <v>2006</v>
       </c>
       <c r="D915" t="n">
-        <v>0.195</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="916">
@@ -13621,7 +13617,7 @@
         <v>2007</v>
       </c>
       <c r="D916" t="n">
-        <v>0.203</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="917">
@@ -13635,7 +13631,7 @@
         <v>2008</v>
       </c>
       <c r="D917" t="n">
-        <v>0.187</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="918">
@@ -13649,7 +13645,7 @@
         <v>2009</v>
       </c>
       <c r="D918" t="n">
-        <v>0.146</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="919">
@@ -13663,7 +13659,7 @@
         <v>2010</v>
       </c>
       <c r="D919" t="n">
-        <v>0.174</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="920">
@@ -13677,7 +13673,7 @@
         <v>2011</v>
       </c>
       <c r="D920" t="n">
-        <v>0.19</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="921">
@@ -13690,9 +13686,7 @@
       <c r="C921" t="n">
         <v>2012</v>
       </c>
-      <c r="D921" t="n">
-        <v>0.19</v>
-      </c>
+      <c r="D921"/>
     </row>
     <row r="922">
       <c r="A922" t="s">
@@ -13860,7 +13854,9 @@
       <c r="C935" t="n">
         <v>2003</v>
       </c>
-      <c r="D935"/>
+      <c r="D935" t="n">
+        <v>0.113</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="s">
@@ -13884,9 +13880,7 @@
       <c r="C937" t="n">
         <v>2005</v>
       </c>
-      <c r="D937" t="n">
-        <v>0.087</v>
-      </c>
+      <c r="D937"/>
     </row>
     <row r="938">
       <c r="A938" t="s">
@@ -13898,9 +13892,7 @@
       <c r="C938" t="n">
         <v>2006</v>
       </c>
-      <c r="D938" t="n">
-        <v>0.092</v>
-      </c>
+      <c r="D938"/>
     </row>
     <row r="939">
       <c r="A939" t="s">
@@ -13912,9 +13904,7 @@
       <c r="C939" t="n">
         <v>2007</v>
       </c>
-      <c r="D939" t="n">
-        <v>0.099</v>
-      </c>
+      <c r="D939"/>
     </row>
     <row r="940">
       <c r="A940" t="s">
@@ -13927,7 +13917,7 @@
         <v>2008</v>
       </c>
       <c r="D940" t="n">
-        <v>0.103</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="941">
@@ -13941,7 +13931,7 @@
         <v>2009</v>
       </c>
       <c r="D941" t="n">
-        <v>0.105</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="942">
@@ -13955,7 +13945,7 @@
         <v>2010</v>
       </c>
       <c r="D942" t="n">
-        <v>0.105</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="943">
@@ -13969,7 +13959,7 @@
         <v>2011</v>
       </c>
       <c r="D943" t="n">
-        <v>0.106</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="944">
@@ -13982,7 +13972,9 @@
       <c r="C944" t="n">
         <v>2012</v>
       </c>
-      <c r="D944"/>
+      <c r="D944" t="n">
+        <v>0.132</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="s">
@@ -14150,9 +14142,7 @@
       <c r="C958" t="n">
         <v>2003</v>
       </c>
-      <c r="D958" t="n">
-        <v>0.113</v>
-      </c>
+      <c r="D958"/>
     </row>
     <row r="959">
       <c r="A959" t="s">
@@ -14212,9 +14202,7 @@
       <c r="C963" t="n">
         <v>2008</v>
       </c>
-      <c r="D963" t="n">
-        <v>0.129</v>
-      </c>
+      <c r="D963"/>
     </row>
     <row r="964">
       <c r="A964" t="s">
@@ -14226,9 +14214,7 @@
       <c r="C964" t="n">
         <v>2009</v>
       </c>
-      <c r="D964" t="n">
-        <v>0.126</v>
-      </c>
+      <c r="D964"/>
     </row>
     <row r="965">
       <c r="A965" t="s">
@@ -14240,9 +14226,7 @@
       <c r="C965" t="n">
         <v>2010</v>
       </c>
-      <c r="D965" t="n">
-        <v>0.121</v>
-      </c>
+      <c r="D965"/>
     </row>
     <row r="966">
       <c r="A966" t="s">
@@ -14254,9 +14238,7 @@
       <c r="C966" t="n">
         <v>2011</v>
       </c>
-      <c r="D966" t="n">
-        <v>0.146</v>
-      </c>
+      <c r="D966"/>
     </row>
     <row r="967">
       <c r="A967" t="s">
@@ -14268,9 +14250,7 @@
       <c r="C967" t="n">
         <v>2012</v>
       </c>
-      <c r="D967" t="n">
-        <v>0.132</v>
-      </c>
+      <c r="D967"/>
     </row>
     <row r="968">
       <c r="A968" t="s">
@@ -14414,7 +14394,9 @@
       <c r="C979" t="n">
         <v>2001</v>
       </c>
-      <c r="D979"/>
+      <c r="D979" t="n">
+        <v>0.092</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="s">
@@ -14426,7 +14408,9 @@
       <c r="C980" t="n">
         <v>2002</v>
       </c>
-      <c r="D980"/>
+      <c r="D980" t="n">
+        <v>0.084</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="s">
@@ -14438,7 +14422,9 @@
       <c r="C981" t="n">
         <v>2003</v>
       </c>
-      <c r="D981"/>
+      <c r="D981" t="n">
+        <v>0.087</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="s">
@@ -14450,7 +14436,9 @@
       <c r="C982" t="n">
         <v>2004</v>
       </c>
-      <c r="D982"/>
+      <c r="D982" t="n">
+        <v>0.078</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="s">
@@ -14462,7 +14450,9 @@
       <c r="C983" t="n">
         <v>2005</v>
       </c>
-      <c r="D983"/>
+      <c r="D983" t="n">
+        <v>0.062</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="s">
@@ -14474,7 +14464,9 @@
       <c r="C984" t="n">
         <v>2006</v>
       </c>
-      <c r="D984"/>
+      <c r="D984" t="n">
+        <v>0.058</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="s">
@@ -14486,7 +14478,9 @@
       <c r="C985" t="n">
         <v>2007</v>
       </c>
-      <c r="D985"/>
+      <c r="D985" t="n">
+        <v>0.066</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="s">
@@ -14498,7 +14492,9 @@
       <c r="C986" t="n">
         <v>2008</v>
       </c>
-      <c r="D986"/>
+      <c r="D986" t="n">
+        <v>0.059</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="s">
@@ -14690,9 +14686,7 @@
       <c r="C1002" t="n">
         <v>2001</v>
       </c>
-      <c r="D1002" t="n">
-        <v>0.092</v>
-      </c>
+      <c r="D1002"/>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
@@ -14704,9 +14698,7 @@
       <c r="C1003" t="n">
         <v>2002</v>
       </c>
-      <c r="D1003" t="n">
-        <v>0.084</v>
-      </c>
+      <c r="D1003"/>
     </row>
     <row r="1004">
       <c r="A1004" t="s">
@@ -14718,9 +14710,7 @@
       <c r="C1004" t="n">
         <v>2003</v>
       </c>
-      <c r="D1004" t="n">
-        <v>0.087</v>
-      </c>
+      <c r="D1004"/>
     </row>
     <row r="1005">
       <c r="A1005" t="s">
@@ -14732,9 +14722,7 @@
       <c r="C1005" t="n">
         <v>2004</v>
       </c>
-      <c r="D1005" t="n">
-        <v>0.078</v>
-      </c>
+      <c r="D1005"/>
     </row>
     <row r="1006">
       <c r="A1006" t="s">
@@ -14746,9 +14734,7 @@
       <c r="C1006" t="n">
         <v>2005</v>
       </c>
-      <c r="D1006" t="n">
-        <v>0.062</v>
-      </c>
+      <c r="D1006"/>
     </row>
     <row r="1007">
       <c r="A1007" t="s">
@@ -14760,9 +14746,7 @@
       <c r="C1007" t="n">
         <v>2006</v>
       </c>
-      <c r="D1007" t="n">
-        <v>0.058</v>
-      </c>
+      <c r="D1007"/>
     </row>
     <row r="1008">
       <c r="A1008" t="s">
@@ -14774,9 +14758,7 @@
       <c r="C1008" t="n">
         <v>2007</v>
       </c>
-      <c r="D1008" t="n">
-        <v>0.066</v>
-      </c>
+      <c r="D1008"/>
     </row>
     <row r="1009">
       <c r="A1009" t="s">
@@ -14789,7 +14771,7 @@
         <v>2008</v>
       </c>
       <c r="D1009" t="n">
-        <v>0.059</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="1010">
@@ -14802,7 +14784,9 @@
       <c r="C1010" t="n">
         <v>2009</v>
       </c>
-      <c r="D1010"/>
+      <c r="D1010" t="n">
+        <v>0.138</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" t="s">
@@ -14814,7 +14798,9 @@
       <c r="C1011" t="n">
         <v>2010</v>
       </c>
-      <c r="D1011"/>
+      <c r="D1011" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" t="s">
@@ -14826,7 +14812,9 @@
       <c r="C1012" t="n">
         <v>2011</v>
       </c>
-      <c r="D1012"/>
+      <c r="D1012" t="n">
+        <v>0.137</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="s">
@@ -14838,7 +14826,9 @@
       <c r="C1013" t="n">
         <v>2012</v>
       </c>
-      <c r="D1013"/>
+      <c r="D1013" t="n">
+        <v>0.136</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" t="s">
@@ -15006,7 +14996,9 @@
       <c r="C1027" t="n">
         <v>2003</v>
       </c>
-      <c r="D1027"/>
+      <c r="D1027" t="n">
+        <v>0.149</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" t="s">
@@ -15018,7 +15010,9 @@
       <c r="C1028" t="n">
         <v>2004</v>
       </c>
-      <c r="D1028"/>
+      <c r="D1028" t="n">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" t="s">
@@ -15030,7 +15024,9 @@
       <c r="C1029" t="n">
         <v>2005</v>
       </c>
-      <c r="D1029"/>
+      <c r="D1029" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" t="s">
@@ -15042,7 +15038,9 @@
       <c r="C1030" t="n">
         <v>2006</v>
       </c>
-      <c r="D1030"/>
+      <c r="D1030" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" t="s">
@@ -15054,7 +15052,9 @@
       <c r="C1031" t="n">
         <v>2007</v>
       </c>
-      <c r="D1031"/>
+      <c r="D1031" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" t="s">
@@ -15067,7 +15067,7 @@
         <v>2008</v>
       </c>
       <c r="D1032" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="1033">
@@ -15081,7 +15081,7 @@
         <v>2009</v>
       </c>
       <c r="D1033" t="n">
-        <v>0.138</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="1034">
@@ -15095,7 +15095,7 @@
         <v>2010</v>
       </c>
       <c r="D1034" t="n">
-        <v>0.134</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="1035">
@@ -15109,7 +15109,7 @@
         <v>2011</v>
       </c>
       <c r="D1035" t="n">
-        <v>0.137</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="1036">
@@ -15123,7 +15123,7 @@
         <v>2012</v>
       </c>
       <c r="D1036" t="n">
-        <v>0.136</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="1037">
@@ -61270,7 +61270,9 @@
       <c r="C4607" t="n">
         <v>1995</v>
       </c>
-      <c r="D4607"/>
+      <c r="D4607" t="n">
+        <v>0.258</v>
+      </c>
     </row>
     <row r="4608">
       <c r="A4608" t="s">
@@ -61282,7 +61284,9 @@
       <c r="C4608" t="n">
         <v>1996</v>
       </c>
-      <c r="D4608"/>
+      <c r="D4608" t="n">
+        <v>0.258</v>
+      </c>
     </row>
     <row r="4609">
       <c r="A4609" t="s">
@@ -61294,7 +61298,9 @@
       <c r="C4609" t="n">
         <v>1997</v>
       </c>
-      <c r="D4609"/>
+      <c r="D4609" t="n">
+        <v>0.263</v>
+      </c>
     </row>
     <row r="4610">
       <c r="A4610" t="s">
@@ -61306,7 +61312,9 @@
       <c r="C4610" t="n">
         <v>1998</v>
       </c>
-      <c r="D4610"/>
+      <c r="D4610" t="n">
+        <v>0.274</v>
+      </c>
     </row>
     <row r="4611">
       <c r="A4611" t="s">
@@ -61319,7 +61327,7 @@
         <v>1999</v>
       </c>
       <c r="D4611" t="n">
-        <v>0.13</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="4612">
@@ -61333,7 +61341,7 @@
         <v>2000</v>
       </c>
       <c r="D4612" t="n">
-        <v>0.141</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="4613">
@@ -61347,7 +61355,7 @@
         <v>2001</v>
       </c>
       <c r="D4613" t="n">
-        <v>0.121</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="4614">
@@ -61361,7 +61369,7 @@
         <v>2002</v>
       </c>
       <c r="D4614" t="n">
-        <v>0.131</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="4615">
@@ -61375,7 +61383,7 @@
         <v>2003</v>
       </c>
       <c r="D4615" t="n">
-        <v>0.137</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="4616">
@@ -61389,7 +61397,7 @@
         <v>2004</v>
       </c>
       <c r="D4616" t="n">
-        <v>0.133</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="4617">
@@ -61403,7 +61411,7 @@
         <v>2005</v>
       </c>
       <c r="D4617" t="n">
-        <v>0.171</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="4618">
@@ -61417,7 +61425,7 @@
         <v>2006</v>
       </c>
       <c r="D4618" t="n">
-        <v>0.177</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="4619">
@@ -61431,7 +61439,7 @@
         <v>2007</v>
       </c>
       <c r="D4619" t="n">
-        <v>0.165</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="4620">
@@ -61445,7 +61453,7 @@
         <v>2008</v>
       </c>
       <c r="D4620" t="n">
-        <v>0.179</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="4621">
@@ -61459,7 +61467,7 @@
         <v>2009</v>
       </c>
       <c r="D4621" t="n">
-        <v>0.164</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="4622">
@@ -61473,7 +61481,7 @@
         <v>2010</v>
       </c>
       <c r="D4622" t="n">
-        <v>0.155</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="4623">
@@ -61487,7 +61495,7 @@
         <v>2011</v>
       </c>
       <c r="D4623" t="n">
-        <v>0.185</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="4624">
@@ -61501,7 +61509,7 @@
         <v>2012</v>
       </c>
       <c r="D4624" t="n">
-        <v>0.182</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="4625">
@@ -61574,9 +61582,7 @@
       <c r="C4630" t="n">
         <v>1995</v>
       </c>
-      <c r="D4630" t="n">
-        <v>0.258</v>
-      </c>
+      <c r="D4630"/>
     </row>
     <row r="4631">
       <c r="A4631" t="s">
@@ -61588,9 +61594,7 @@
       <c r="C4631" t="n">
         <v>1996</v>
       </c>
-      <c r="D4631" t="n">
-        <v>0.258</v>
-      </c>
+      <c r="D4631"/>
     </row>
     <row r="4632">
       <c r="A4632" t="s">
@@ -61602,9 +61606,7 @@
       <c r="C4632" t="n">
         <v>1997</v>
       </c>
-      <c r="D4632" t="n">
-        <v>0.263</v>
-      </c>
+      <c r="D4632"/>
     </row>
     <row r="4633">
       <c r="A4633" t="s">
@@ -61616,9 +61618,7 @@
       <c r="C4633" t="n">
         <v>1998</v>
       </c>
-      <c r="D4633" t="n">
-        <v>0.274</v>
-      </c>
+      <c r="D4633"/>
     </row>
     <row r="4634">
       <c r="A4634" t="s">
@@ -61631,7 +61631,7 @@
         <v>1999</v>
       </c>
       <c r="D4634" t="n">
-        <v>0.277</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4635">
@@ -61645,7 +61645,7 @@
         <v>2000</v>
       </c>
       <c r="D4635" t="n">
-        <v>0.281</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="4636">
@@ -61659,7 +61659,7 @@
         <v>2001</v>
       </c>
       <c r="D4636" t="n">
-        <v>0.279</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="4637">
@@ -61673,7 +61673,7 @@
         <v>2002</v>
       </c>
       <c r="D4637" t="n">
-        <v>0.269</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="4638">
@@ -61687,7 +61687,7 @@
         <v>2003</v>
       </c>
       <c r="D4638" t="n">
-        <v>0.261</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="4639">
@@ -61701,7 +61701,7 @@
         <v>2004</v>
       </c>
       <c r="D4639" t="n">
-        <v>0.263</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="4640">
@@ -61715,7 +61715,7 @@
         <v>2005</v>
       </c>
       <c r="D4640" t="n">
-        <v>0.268</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="4641">
@@ -61729,7 +61729,7 @@
         <v>2006</v>
       </c>
       <c r="D4641" t="n">
-        <v>0.275</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="4642">
@@ -61743,7 +61743,7 @@
         <v>2007</v>
       </c>
       <c r="D4642" t="n">
-        <v>0.272</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="4643">
@@ -61757,7 +61757,7 @@
         <v>2008</v>
       </c>
       <c r="D4643" t="n">
-        <v>0.284</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="4644">
@@ -61771,7 +61771,7 @@
         <v>2009</v>
       </c>
       <c r="D4644" t="n">
-        <v>0.256</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="4645">
@@ -61785,7 +61785,7 @@
         <v>2010</v>
       </c>
       <c r="D4645" t="n">
-        <v>0.264</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="4646">
@@ -61799,7 +61799,7 @@
         <v>2011</v>
       </c>
       <c r="D4646" t="n">
-        <v>0.271</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="4647">
@@ -61813,7 +61813,7 @@
         <v>2012</v>
       </c>
       <c r="D4647" t="n">
-        <v>0.269</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="4648">
@@ -66237,36 +66237,38 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33"/>
+      <c r="O33" t="n">
+        <v>0.082</v>
+      </c>
       <c r="P33" t="n">
-        <v>0.149</v>
+        <v>0.075</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.152</v>
+        <v>0.081</v>
       </c>
       <c r="R33" t="n">
-        <v>0.145</v>
+        <v>0.079</v>
       </c>
       <c r="S33" t="n">
-        <v>0.15</v>
+        <v>0.082</v>
       </c>
       <c r="T33" t="n">
-        <v>0.155</v>
+        <v>0.097</v>
       </c>
       <c r="U33" t="n">
-        <v>0.156</v>
+        <v>0.106</v>
       </c>
       <c r="V33" t="n">
-        <v>0.154</v>
+        <v>0.096</v>
       </c>
       <c r="W33" t="n">
-        <v>0.156</v>
+        <v>0.1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.115</v>
+        <v>0.102</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.156</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="34">
@@ -66276,51 +66278,45 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
+      <c r="C34" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.086</v>
+      </c>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="K34" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.112</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.116</v>
-      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -66329,45 +66325,73 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.098</v>
-      </c>
+      <c r="C35"/>
       <c r="D35" t="n">
-        <v>0.089</v>
+        <v>0.145</v>
       </c>
       <c r="E35" t="n">
-        <v>0.098</v>
+        <v>0.144</v>
       </c>
       <c r="F35" t="n">
-        <v>0.084</v>
+        <v>0.137</v>
       </c>
       <c r="G35" t="n">
-        <v>0.073</v>
+        <v>0.131</v>
       </c>
       <c r="H35" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35"/>
+        <v>0.134</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.146</v>
+      </c>
       <c r="K35" t="n">
-        <v>0.111</v>
+        <v>0.147</v>
       </c>
       <c r="L35" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
+        <v>0.148</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.117</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -66377,71 +66401,43 @@
         <v>73</v>
       </c>
       <c r="C36"/>
-      <c r="D36" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.134</v>
-      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
       <c r="R36" t="n">
-        <v>0.134</v>
+        <v>0.211</v>
       </c>
       <c r="S36" t="n">
-        <v>0.134</v>
+        <v>0.227</v>
       </c>
       <c r="T36" t="n">
-        <v>0.134</v>
+        <v>0.209</v>
       </c>
       <c r="U36" t="n">
-        <v>0.124</v>
+        <v>0.213</v>
       </c>
       <c r="V36" t="n">
-        <v>0.123</v>
+        <v>0.184</v>
       </c>
       <c r="W36" t="n">
-        <v>0.118</v>
+        <v>0.184</v>
       </c>
       <c r="X36" t="n">
-        <v>0.117</v>
+        <v>0.197</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.117</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="37">
@@ -66466,29 +66462,23 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.209</v>
-      </c>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
       <c r="U37" t="n">
-        <v>0.213</v>
+        <v>0.083</v>
       </c>
       <c r="V37" t="n">
-        <v>0.184</v>
+        <v>0.082</v>
       </c>
       <c r="W37" t="n">
-        <v>0.184</v>
+        <v>0.091</v>
       </c>
       <c r="X37" t="n">
-        <v>0.197</v>
+        <v>0.084</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.178</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="38">
@@ -66516,21 +66506,11 @@
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
-      <c r="U38" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.095</v>
-      </c>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -66582,17 +66562,39 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
+      <c r="O40" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -66613,39 +66615,31 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.162</v>
-      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
       <c r="R41" t="n">
-        <v>0.178</v>
+        <v>0.087</v>
       </c>
       <c r="S41" t="n">
-        <v>0.195</v>
+        <v>0.092</v>
       </c>
       <c r="T41" t="n">
-        <v>0.203</v>
+        <v>0.099</v>
       </c>
       <c r="U41" t="n">
-        <v>0.187</v>
+        <v>0.103</v>
       </c>
       <c r="V41" t="n">
-        <v>0.146</v>
+        <v>0.105</v>
       </c>
       <c r="W41" t="n">
-        <v>0.174</v>
+        <v>0.105</v>
       </c>
       <c r="X41" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.19</v>
-      </c>
+        <v>0.106</v>
+      </c>
+      <c r="Y41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -66667,30 +66661,28 @@
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
-      <c r="P42"/>
+      <c r="P42" t="n">
+        <v>0.113</v>
+      </c>
       <c r="Q42"/>
-      <c r="R42" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.099</v>
-      </c>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
       <c r="U42" t="n">
-        <v>0.103</v>
+        <v>0.129</v>
       </c>
       <c r="V42" t="n">
-        <v>0.105</v>
+        <v>0.126</v>
       </c>
       <c r="W42" t="n">
-        <v>0.105</v>
+        <v>0.121</v>
       </c>
       <c r="X42" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="Y42"/>
+        <v>0.146</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.132</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -66712,28 +66704,16 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
-      <c r="P43" t="n">
-        <v>0.113</v>
-      </c>
+      <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
-      <c r="U43" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.132</v>
-      </c>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -66753,14 +66733,30 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
+      <c r="N44" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.059</v>
+      </c>
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
@@ -66784,34 +66780,28 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.066</v>
-      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
       <c r="U45" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
+        <v>0.157</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.136</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -66833,25 +66823,35 @@
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="P46" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.155</v>
+      </c>
       <c r="U46" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="V46" t="n">
-        <v>0.138</v>
+        <v>0.154</v>
       </c>
       <c r="W46" t="n">
-        <v>0.134</v>
+        <v>0.156</v>
       </c>
       <c r="X46" t="n">
-        <v>0.137</v>
+        <v>0.115</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.136</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="47">
@@ -74965,51 +74965,59 @@
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
+      <c r="H202" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.274</v>
+      </c>
       <c r="L202" t="n">
-        <v>0.13</v>
+        <v>0.277</v>
       </c>
       <c r="M202" t="n">
-        <v>0.141</v>
+        <v>0.281</v>
       </c>
       <c r="N202" t="n">
-        <v>0.121</v>
+        <v>0.279</v>
       </c>
       <c r="O202" t="n">
-        <v>0.131</v>
+        <v>0.269</v>
       </c>
       <c r="P202" t="n">
-        <v>0.137</v>
+        <v>0.261</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.133</v>
+        <v>0.263</v>
       </c>
       <c r="R202" t="n">
-        <v>0.171</v>
+        <v>0.268</v>
       </c>
       <c r="S202" t="n">
-        <v>0.177</v>
+        <v>0.275</v>
       </c>
       <c r="T202" t="n">
-        <v>0.165</v>
+        <v>0.272</v>
       </c>
       <c r="U202" t="n">
-        <v>0.179</v>
+        <v>0.284</v>
       </c>
       <c r="V202" t="n">
-        <v>0.164</v>
+        <v>0.256</v>
       </c>
       <c r="W202" t="n">
-        <v>0.155</v>
+        <v>0.264</v>
       </c>
       <c r="X202" t="n">
-        <v>0.185</v>
+        <v>0.271</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.182</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="203">
@@ -75024,59 +75032,51 @@
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203"/>
-      <c r="H203" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.274</v>
-      </c>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
       <c r="L203" t="n">
-        <v>0.277</v>
+        <v>0.13</v>
       </c>
       <c r="M203" t="n">
-        <v>0.281</v>
+        <v>0.141</v>
       </c>
       <c r="N203" t="n">
-        <v>0.279</v>
+        <v>0.121</v>
       </c>
       <c r="O203" t="n">
-        <v>0.269</v>
+        <v>0.131</v>
       </c>
       <c r="P203" t="n">
-        <v>0.261</v>
+        <v>0.137</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.263</v>
+        <v>0.133</v>
       </c>
       <c r="R203" t="n">
-        <v>0.268</v>
+        <v>0.171</v>
       </c>
       <c r="S203" t="n">
-        <v>0.275</v>
+        <v>0.177</v>
       </c>
       <c r="T203" t="n">
-        <v>0.272</v>
+        <v>0.165</v>
       </c>
       <c r="U203" t="n">
-        <v>0.284</v>
+        <v>0.179</v>
       </c>
       <c r="V203" t="n">
-        <v>0.256</v>
+        <v>0.164</v>
       </c>
       <c r="W203" t="n">
-        <v>0.264</v>
+        <v>0.155</v>
       </c>
       <c r="X203" t="n">
-        <v>0.271</v>
+        <v>0.185</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.269</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="204">
